--- a/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_duplicated_options.xlsx
+++ b/formshare/tests/resources/forms/merge_multilanguaje/asistencia_tecnica_duplicated_options.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
-    <t xml:space="preserve">final</t>
+    <t xml:space="preserve">fe_final</t>
   </si>
   <si>
     <t xml:space="preserve">today</t>
@@ -391,19 +391,19 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="59.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.27"/>
   </cols>
   <sheetData>
@@ -597,8 +597,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -617,9 +617,9 @@
       <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.17"/>
   </cols>
@@ -1044,8 +1044,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1060,11 +1060,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1093,8 +1093,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
